--- a/effort_estimation.xlsx
+++ b/effort_estimation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahkusaidy/Documents/Repositories/Parkassist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haaan\Documents\Studium\Semester 6\Graphische Programmierung\Projekt\Parkassist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34455A2E-C24F-A74F-9C61-DB6A11C7C5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65034F87-7CD4-4778-8AA3-DE87BB4EE58F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{1F98348F-F45F-A84B-9C98-4441577B2E35}"/>
+    <workbookView xWindow="4800" yWindow="1760" windowWidth="14400" windowHeight="7360" xr2:uid="{1F98348F-F45F-A84B-9C98-4441577B2E35}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Anforderung</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>D14</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>2+2+</t>
   </si>
 </sst>
 </file>
@@ -460,12 +466,12 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -509,7 +515,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -530,7 +536,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -551,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -569,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -587,7 +593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -608,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -625,8 +631,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -643,8 +652,11 @@
         <f t="shared" si="0"/>
         <v>2.4166666666666665</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -661,8 +673,11 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -679,8 +694,11 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -698,7 +716,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -715,11 +733,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -737,7 +755,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -755,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -769,7 +787,7 @@
       </c>
       <c r="G16">
         <f>SUM(G2:G14)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/effort_estimation.xlsx
+++ b/effort_estimation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haaan\Documents\Studium\Semester 6\Graphische Programmierung\Projekt\Parkassist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahkusaidy/Documents/Repositories/Parkassist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65034F87-7CD4-4778-8AA3-DE87BB4EE58F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697D32D7-1686-1143-8DBE-8231FCAA1078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1760" windowWidth="14400" windowHeight="7360" xr2:uid="{1F98348F-F45F-A84B-9C98-4441577B2E35}"/>
+    <workbookView xWindow="4800" yWindow="1760" windowWidth="17400" windowHeight="13100" xr2:uid="{1F98348F-F45F-A84B-9C98-4441577B2E35}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -47,12 +47,6 @@
     <t>pessimistisch</t>
   </si>
   <si>
-    <t>&lt;T&gt;</t>
-  </si>
-  <si>
-    <t>sigmahoch2</t>
-  </si>
-  <si>
     <t>wirklich</t>
   </si>
   <si>
@@ -105,6 +99,12 @@
   </si>
   <si>
     <t>2+2+</t>
+  </si>
+  <si>
+    <t>&lt;T&gt; (weighted mean)</t>
+  </si>
+  <si>
+    <t>sigma</t>
   </si>
 </sst>
 </file>
@@ -466,12 +466,16 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,18 +489,18 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>0.75</v>
@@ -511,13 +515,17 @@
         <f>(B2+4*C2+D2)/6</f>
         <v>1.0416666666666667</v>
       </c>
+      <c r="F2">
+        <f>(D2-B2)/6</f>
+        <v>0.125</v>
+      </c>
       <c r="G2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -532,13 +540,17 @@
         <f t="shared" ref="E3:E15" si="0">(B3+4*C3+D3)/6</f>
         <v>1</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F15" si="1">(D3-B3)/6</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G3">
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1.5</v>
@@ -553,13 +565,17 @@
         <f t="shared" si="0"/>
         <v>2.0833333333333335</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="G4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -574,10 +590,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -592,10 +612,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -610,13 +634,17 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -631,13 +659,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="G8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1.5</v>
@@ -652,13 +684,17 @@
         <f t="shared" si="0"/>
         <v>2.4166666666666665</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -673,13 +709,17 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -694,13 +734,17 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -715,10 +759,14 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -733,13 +781,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="G13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -754,10 +806,14 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>1.5</v>
@@ -772,10 +828,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <f>SUM(E2:E15)</f>
@@ -783,7 +843,7 @@
       </c>
       <c r="F16">
         <f>SUM(F2:F14)</f>
-        <v>0</v>
+        <v>2.958333333333333</v>
       </c>
       <c r="G16">
         <f>SUM(G2:G14)</f>

--- a/effort_estimation.xlsx
+++ b/effort_estimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahkusaidy/Documents/Repositories/Parkassist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697D32D7-1686-1143-8DBE-8231FCAA1078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A4BCFA-E564-1847-BAE4-B7F89AE23C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="1760" windowWidth="17400" windowHeight="13100" xr2:uid="{1F98348F-F45F-A84B-9C98-4441577B2E35}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Anforderung</t>
   </si>
@@ -93,12 +93,6 @@
   </si>
   <si>
     <t>D14</t>
-  </si>
-  <si>
-    <t>1+</t>
-  </si>
-  <si>
-    <t>2+2+</t>
   </si>
   <si>
     <t>&lt;T&gt; (weighted mean)</t>
@@ -466,7 +460,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G15" sqref="A2:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -594,6 +588,9 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -616,6 +613,9 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -738,8 +738,8 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G11" t="s">
-        <v>20</v>
+      <c r="G11" s="1">
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -763,6 +763,9 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -785,8 +788,8 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G13" t="s">
-        <v>21</v>
+      <c r="G13">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -810,6 +813,9 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -832,6 +838,9 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
@@ -846,8 +855,8 @@
         <v>2.958333333333333</v>
       </c>
       <c r="G16">
-        <f>SUM(G2:G14)</f>
-        <v>17</v>
+        <f>SUM(G2:G15)</f>
+        <v>36.5</v>
       </c>
     </row>
   </sheetData>

--- a/effort_estimation.xlsx
+++ b/effort_estimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahkusaidy/Documents/Repositories/Parkassist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A4BCFA-E564-1847-BAE4-B7F89AE23C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECBED2D-12C9-5343-ADC9-7DF2F1CCD85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="1760" windowWidth="17400" windowHeight="13100" xr2:uid="{1F98348F-F45F-A84B-9C98-4441577B2E35}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Anforderung</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>sigma</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
   </si>
 </sst>
 </file>
@@ -140,9 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -457,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D499341-F661-ED40-AB22-AE54F91B5865}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="A2:G15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,7 +535,7 @@
         <v>1.5</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E15" si="0">(B3+4*C3+D3)/6</f>
+        <f t="shared" ref="E3:E16" si="0">(B3+4*C3+D3)/6</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -843,20 +847,56 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <f>SUM(E2:E15)</f>
-        <v>39.041666666666671</v>
-      </c>
-      <c r="F16">
-        <f>SUM(F2:F14)</f>
-        <v>2.958333333333333</v>
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B2:B15)</f>
+        <v>29.75</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C2:C15)</f>
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D2:D15)</f>
+        <v>48.5</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>39.041666666666664</v>
       </c>
       <c r="G16">
         <f>SUM(G2:G15)</f>
         <v>36.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C19">
+        <f>(B16+C16*4+D16)/6-2*((D16-B16)/6)</f>
+        <v>32.791666666666664</v>
+      </c>
+      <c r="D19">
+        <f>((D16-B16)/6)</f>
+        <v>3.125</v>
+      </c>
+      <c r="E19">
+        <f>E16+2*F17</f>
+        <v>39.041666666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f>(B16+C16*4+D16)/6+2*((D16-B16)/6)</f>
+        <v>45.291666666666664</v>
       </c>
     </row>
   </sheetData>

--- a/effort_estimation.xlsx
+++ b/effort_estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahkusaidy/Documents/Repositories/Parkassist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECBED2D-12C9-5343-ADC9-7DF2F1CCD85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C48002-112A-B841-AEC1-D7CE6BAEE64C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1760" windowWidth="17400" windowHeight="13100" xr2:uid="{1F98348F-F45F-A84B-9C98-4441577B2E35}"/>
+    <workbookView xWindow="7100" yWindow="-16480" windowWidth="17400" windowHeight="13100" xr2:uid="{1F98348F-F45F-A84B-9C98-4441577B2E35}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -89,19 +89,19 @@
     <t>D13</t>
   </si>
   <si>
-    <t>Summe</t>
-  </si>
-  <si>
     <t>D14</t>
   </si>
   <si>
     <t>&lt;T&gt; (weighted mean)</t>
   </si>
   <si>
-    <t>sigma</t>
-  </si>
-  <si>
     <t>Gesamt</t>
+  </si>
+  <si>
+    <t>sigma^2</t>
+  </si>
+  <si>
+    <t>Gesamtdauer (95%)</t>
   </si>
 </sst>
 </file>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D499341-F661-ED40-AB22-AE54F91B5865}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>21</v>
@@ -514,8 +514,8 @@
         <v>1.0416666666666667</v>
       </c>
       <c r="F2">
-        <f>(D2-B2)/6</f>
-        <v>0.125</v>
+        <f>((D2-B2)/6)^2</f>
+        <v>1.5625E-2</v>
       </c>
       <c r="G2">
         <v>0.75</v>
@@ -539,8 +539,8 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F15" si="1">(D3-B3)/6</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" ref="F3:F15" si="1">((D3-B3)/6)^2</f>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="G3">
         <v>1.25</v>
@@ -565,7 +565,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -590,7 +590,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -640,7 +640,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -665,7 +665,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -740,7 +740,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="G11" s="1">
         <v>2.5</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -790,7 +790,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -815,7 +815,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>1.5</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <f>SUM(B2:B15)</f>
@@ -866,38 +866,26 @@
         <f t="shared" si="0"/>
         <v>39.041666666666664</v>
       </c>
+      <c r="F16">
+        <f>SUM(F2:F15)</f>
+        <v>0.77951388888888884</v>
+      </c>
       <c r="G16">
         <f>SUM(G2:G15)</f>
         <v>36.5</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="C19">
-        <f>(B16+C16*4+D16)/6-2*((D16-B16)/6)</f>
-        <v>32.791666666666664</v>
-      </c>
-      <c r="D19">
-        <f>((D16-B16)/6)</f>
-        <v>3.125</v>
-      </c>
-      <c r="E19">
-        <f>E16+2*F17</f>
-        <v>39.041666666666664</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <f>(B16+C16*4+D16)/6+2*((D16-B16)/6)</f>
-        <v>45.291666666666664</v>
-      </c>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <f>E16+2*SQRT(F16)</f>
+        <v>40.807468341701423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
